--- a/Colaboradores.xlsx
+++ b/Colaboradores.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedropereira\Desktop\Projetos\super_carometro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F0354-22C5-4A9C-999D-4B3218E53B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C03AD6-5323-496C-B1C3-9D380B150669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$223</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="627">
   <si>
     <t>Matricula</t>
   </si>
@@ -1114,6 +1117,9 @@
     <t>matheus.tome@grupoboticario.com.br</t>
   </si>
   <si>
+    <t>https://res.cloudinary.com/dobpamuop/image/upload/matheus-tome-da-silva_iatgbz.jpg</t>
+  </si>
+  <si>
     <t>Mattheus Moreira Da Costa</t>
   </si>
   <si>
@@ -1603,9 +1609,6 @@
     <t>https://res.cloudinary.com/dobpamuop/image/upload/ygor-fernando-alves-e-silva_rm3zic.jpg</t>
   </si>
   <si>
-    <t>Yochabel Carlech Dantas Jose</t>
-  </si>
-  <si>
     <t>yochabel.jose@grupoboticario.com.br</t>
   </si>
   <si>
@@ -1897,7 +1900,10 @@
     <t>https://res.cloudinary.com/dobpamuop/image/upload/joao-vitor-alves_f4xzl5.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/dobpamuop/image/upload/v1756743783/matheus-tome-da-silva_l4seia.jpg</t>
+    <t>Gilvan Lima Dos Santos</t>
+  </si>
+  <si>
+    <t>gilvansantos@grupoboticario.com.br</t>
   </si>
 </sst>
 </file>
@@ -2264,15 +2270,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G111" workbookViewId="0">
-      <selection activeCell="O121" sqref="O121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="96.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2323,7 +2343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>49498</v>
       </c>
@@ -2364,7 +2384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>40173</v>
       </c>
@@ -2405,7 +2425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>49823</v>
       </c>
@@ -2446,7 +2466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>52200</v>
       </c>
@@ -2487,7 +2507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>49266</v>
       </c>
@@ -2525,7 +2545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>49255</v>
       </c>
@@ -2566,7 +2586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>34082</v>
       </c>
@@ -2607,7 +2627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50635</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>29960</v>
       </c>
@@ -2689,7 +2709,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>18925</v>
       </c>
@@ -2727,7 +2747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>35315</v>
       </c>
@@ -2768,7 +2788,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>20005</v>
       </c>
@@ -2809,7 +2829,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>47678</v>
       </c>
@@ -2850,7 +2870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>49558</v>
       </c>
@@ -2888,7 +2908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>52202</v>
       </c>
@@ -2926,7 +2946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>43344</v>
       </c>
@@ -2964,7 +2984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>47706</v>
       </c>
@@ -3005,7 +3025,7 @@
         <v>25568.87552957176</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>43490</v>
       </c>
@@ -3043,7 +3063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>44966</v>
       </c>
@@ -3081,7 +3101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>30034</v>
       </c>
@@ -3122,7 +3142,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>19114</v>
       </c>
@@ -3160,7 +3180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>39780</v>
       </c>
@@ -3201,7 +3221,7 @@
         <v>25568.875530335648</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>52165</v>
       </c>
@@ -3242,7 +3262,7 @@
         <v>25568.87552956018</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>43394</v>
       </c>
@@ -3283,7 +3303,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>43384</v>
       </c>
@@ -3324,7 +3344,7 @@
         <v>25568.87552957176</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>33120</v>
       </c>
@@ -3362,7 +3382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>35167</v>
       </c>
@@ -3403,7 +3423,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>47915</v>
       </c>
@@ -3444,7 +3464,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>45909</v>
       </c>
@@ -3485,7 +3505,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>48043</v>
       </c>
@@ -3526,7 +3546,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>47819</v>
       </c>
@@ -3564,7 +3584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>38673</v>
       </c>
@@ -3605,7 +3625,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>47545</v>
       </c>
@@ -3646,7 +3666,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>30066</v>
       </c>
@@ -3687,7 +3707,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>18678</v>
       </c>
@@ -3728,7 +3748,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>40430</v>
       </c>
@@ -3766,7 +3786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>47646</v>
       </c>
@@ -3804,7 +3824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>30109</v>
       </c>
@@ -3845,7 +3865,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>47667</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>18731</v>
       </c>
@@ -3927,7 +3947,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>52149</v>
       </c>
@@ -3965,7 +3985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>38677</v>
       </c>
@@ -4006,7 +4026,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>18732</v>
       </c>
@@ -4047,7 +4067,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>52177</v>
       </c>
@@ -4088,7 +4108,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>47640</v>
       </c>
@@ -4129,7 +4149,7 @@
         <v>25568.87553085648</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>43359</v>
       </c>
@@ -4167,7 +4187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>52156</v>
       </c>
@@ -4208,7 +4228,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>39971</v>
       </c>
@@ -4249,7 +4269,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>47509</v>
       </c>
@@ -4290,7 +4310,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>18675</v>
       </c>
@@ -4328,7 +4348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>18521</v>
       </c>
@@ -4366,7 +4386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>34919</v>
       </c>
@@ -4404,7 +4424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>47735</v>
       </c>
@@ -4445,7 +4465,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>47703</v>
       </c>
@@ -4486,7 +4506,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>18612</v>
       </c>
@@ -4527,7 +4547,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>43354</v>
       </c>
@@ -4568,7 +4588,7 @@
         <v>25568.875529583329</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>48062</v>
       </c>
@@ -4606,7 +4626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>35217</v>
       </c>
@@ -4644,7 +4664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>47387</v>
       </c>
@@ -4685,7 +4705,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>47969</v>
       </c>
@@ -4723,7 +4743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>43358</v>
       </c>
@@ -4764,7 +4784,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>51679</v>
       </c>
@@ -4805,7 +4825,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>52183</v>
       </c>
@@ -4846,7 +4866,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>35312</v>
       </c>
@@ -4887,7 +4907,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>49351</v>
       </c>
@@ -4925,7 +4945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>47379</v>
       </c>
@@ -4966,7 +4986,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>47441</v>
       </c>
@@ -5007,7 +5027,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>47786</v>
       </c>
@@ -5045,7 +5065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>19166</v>
       </c>
@@ -5086,7 +5106,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>18698</v>
       </c>
@@ -5127,7 +5147,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>18577</v>
       </c>
@@ -5168,7 +5188,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>18974</v>
       </c>
@@ -5206,7 +5226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>43517</v>
       </c>
@@ -5244,7 +5264,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>18751</v>
       </c>
@@ -5285,7 +5305,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>43446</v>
       </c>
@@ -5323,7 +5343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>43345</v>
       </c>
@@ -5364,7 +5384,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>49482</v>
       </c>
@@ -5405,7 +5425,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>37428</v>
       </c>
@@ -5446,7 +5466,7 @@
         <v>25568.87553090278</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>19084</v>
       </c>
@@ -5487,7 +5507,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>18443</v>
       </c>
@@ -5525,7 +5545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>51556</v>
       </c>
@@ -5566,7 +5586,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>7557</v>
       </c>
@@ -5604,7 +5624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>34015</v>
       </c>
@@ -5645,7 +5665,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>43450</v>
       </c>
@@ -5683,7 +5703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>18397</v>
       </c>
@@ -5724,7 +5744,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>29853</v>
       </c>
@@ -5762,7 +5782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>52093</v>
       </c>
@@ -5800,7 +5820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>30116</v>
       </c>
@@ -5841,7 +5861,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>47768</v>
       </c>
@@ -5882,7 +5902,7 @@
         <v>25568.875530046302</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>39954</v>
       </c>
@@ -5920,7 +5940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>43348</v>
       </c>
@@ -5961,7 +5981,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>18975</v>
       </c>
@@ -6002,7 +6022,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>18370</v>
       </c>
@@ -6043,7 +6063,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>37353</v>
       </c>
@@ -6084,7 +6104,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>30005</v>
       </c>
@@ -6128,7 +6148,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>39982</v>
       </c>
@@ -6169,7 +6189,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>19008</v>
       </c>
@@ -6207,7 +6227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>43520</v>
       </c>
@@ -6245,7 +6265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>35061</v>
       </c>
@@ -6286,7 +6306,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>35511</v>
       </c>
@@ -6324,7 +6344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>34022</v>
       </c>
@@ -6362,7 +6382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>40260</v>
       </c>
@@ -6403,7 +6423,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>47642</v>
       </c>
@@ -6441,7 +6461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>29950</v>
       </c>
@@ -6482,7 +6502,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>47827</v>
       </c>
@@ -6523,7 +6543,7 @@
         <v>25568.875529849542</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>19017</v>
       </c>
@@ -6564,7 +6584,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>35003</v>
       </c>
@@ -6602,7 +6622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>49828</v>
       </c>
@@ -6643,7 +6663,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>30321</v>
       </c>
@@ -6681,7 +6701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>38043</v>
       </c>
@@ -6719,7 +6739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>19146</v>
       </c>
@@ -6760,7 +6780,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>52174</v>
       </c>
@@ -6801,7 +6821,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>44812</v>
       </c>
@@ -6842,7 +6862,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>52192</v>
       </c>
@@ -6883,7 +6903,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>37510</v>
       </c>
@@ -6921,7 +6941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>50011</v>
       </c>
@@ -6959,7 +6979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>34993</v>
       </c>
@@ -7000,7 +7020,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>47629</v>
       </c>
@@ -7041,7 +7061,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>30091</v>
       </c>
@@ -7082,7 +7102,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>37615</v>
       </c>
@@ -7120,18 +7140,18 @@
         <v>23</v>
       </c>
       <c r="O121" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>30246</v>
       </c>
       <c r="B122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C122" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D122" t="s">
         <v>17</v>
@@ -7161,15 +7181,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>47755</v>
       </c>
       <c r="B123" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C123" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
@@ -7199,15 +7219,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>34936</v>
       </c>
       <c r="B124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C124" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D124" t="s">
         <v>17</v>
@@ -7237,15 +7257,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>49524</v>
       </c>
       <c r="B125" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D125" t="s">
         <v>17</v>
@@ -7275,18 +7295,18 @@
         <v>23</v>
       </c>
       <c r="O125" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>39967</v>
       </c>
       <c r="B126" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C126" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D126" t="s">
         <v>17</v>
@@ -7316,18 +7336,18 @@
         <v>23</v>
       </c>
       <c r="O126" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>48057</v>
       </c>
       <c r="B127" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C127" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D127" t="s">
         <v>17</v>
@@ -7357,18 +7377,18 @@
         <v>23</v>
       </c>
       <c r="O127" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>47715</v>
       </c>
       <c r="B128" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C128" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
@@ -7398,18 +7418,18 @@
         <v>23</v>
       </c>
       <c r="O128" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>43363</v>
       </c>
       <c r="B129" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C129" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
@@ -7442,15 +7462,15 @@
         <v>25568.875530335648</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>39992</v>
       </c>
       <c r="B130" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D130" t="s">
         <v>17</v>
@@ -7483,15 +7503,15 @@
         <v>25568.875529641209</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>50121</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C131" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D131" t="s">
         <v>17</v>
@@ -7521,18 +7541,18 @@
         <v>23</v>
       </c>
       <c r="O131" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>30032</v>
       </c>
       <c r="B132" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C132" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D132" t="s">
         <v>17</v>
@@ -7562,15 +7582,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>47506</v>
       </c>
       <c r="B133" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C133" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
@@ -7600,18 +7620,18 @@
         <v>23</v>
       </c>
       <c r="O133" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>34934</v>
       </c>
       <c r="B134" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C134" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D134" t="s">
         <v>17</v>
@@ -7644,15 +7664,15 @@
         <v>25568.87553090278</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>43516</v>
       </c>
       <c r="B135" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D135" t="s">
         <v>17</v>
@@ -7685,15 +7705,15 @@
         <v>25568.87553090278</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>49380</v>
       </c>
       <c r="B136" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C136" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D136" t="s">
         <v>17</v>
@@ -7723,15 +7743,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>43507</v>
       </c>
       <c r="B137" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C137" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D137" t="s">
         <v>100</v>
@@ -7761,18 +7781,18 @@
         <v>23</v>
       </c>
       <c r="O137" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>29971</v>
       </c>
       <c r="B138" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C138" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D138" t="s">
         <v>17</v>
@@ -7802,7 +7822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>35694</v>
       </c>
@@ -7840,18 +7860,18 @@
         <v>23</v>
       </c>
       <c r="O139" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>52159</v>
       </c>
       <c r="B140" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C140" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
@@ -7881,18 +7901,18 @@
         <v>23</v>
       </c>
       <c r="O140" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>52129</v>
       </c>
       <c r="B141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C141" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
@@ -7922,18 +7942,18 @@
         <v>23</v>
       </c>
       <c r="O141" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>18380</v>
       </c>
       <c r="B142" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C142" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D142" t="s">
         <v>237</v>
@@ -7963,18 +7983,18 @@
         <v>23</v>
       </c>
       <c r="O142" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>45248</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C143" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D143" t="s">
         <v>237</v>
@@ -8004,15 +8024,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>34909</v>
       </c>
       <c r="B144" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C144" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D144" t="s">
         <v>17</v>
@@ -8045,15 +8065,15 @@
         <v>25568.875529606481</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>29787</v>
       </c>
       <c r="B145" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C145" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D145" t="s">
         <v>17</v>
@@ -8086,15 +8106,15 @@
         <v>25568.875530335648</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>18394</v>
       </c>
       <c r="B146" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D146" t="s">
         <v>17</v>
@@ -8124,18 +8144,18 @@
         <v>23</v>
       </c>
       <c r="O146" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>34914</v>
       </c>
       <c r="B147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
@@ -8165,18 +8185,18 @@
         <v>23</v>
       </c>
       <c r="O147" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>20435</v>
       </c>
       <c r="B148" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C148" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D148" t="s">
         <v>17</v>
@@ -8209,18 +8229,18 @@
         <v>25568.875530335648</v>
       </c>
       <c r="O148" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>30467</v>
       </c>
       <c r="B149" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C149" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D149" t="s">
         <v>17</v>
@@ -8250,18 +8270,18 @@
         <v>23</v>
       </c>
       <c r="O149" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>52133</v>
       </c>
       <c r="B150" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C150" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D150" t="s">
         <v>17</v>
@@ -8291,18 +8311,18 @@
         <v>23</v>
       </c>
       <c r="O150" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>39987</v>
       </c>
       <c r="B151" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C151" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D151" t="s">
         <v>17</v>
@@ -8332,15 +8352,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>52164</v>
       </c>
       <c r="B152" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C152" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D152" t="s">
         <v>17</v>
@@ -8370,15 +8390,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>50639</v>
       </c>
       <c r="B153" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C153" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D153" t="s">
         <v>17</v>
@@ -8411,18 +8431,18 @@
         <v>25568.87553041667</v>
       </c>
       <c r="O153" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>47878</v>
       </c>
       <c r="B154" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C154" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D154" t="s">
         <v>17</v>
@@ -8452,18 +8472,18 @@
         <v>23</v>
       </c>
       <c r="O154" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>34893</v>
       </c>
       <c r="B155" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C155" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D155" t="s">
         <v>17</v>
@@ -8493,15 +8513,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>47911</v>
       </c>
       <c r="B156" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C156" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D156" t="s">
         <v>17</v>
@@ -8531,18 +8551,18 @@
         <v>23</v>
       </c>
       <c r="O156" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>52162</v>
       </c>
       <c r="B157" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C157" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
@@ -8572,18 +8592,18 @@
         <v>23</v>
       </c>
       <c r="O157" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>18993</v>
       </c>
       <c r="B158" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C158" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D158" t="s">
         <v>17</v>
@@ -8613,18 +8633,18 @@
         <v>23</v>
       </c>
       <c r="O158" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>47501</v>
       </c>
       <c r="B159" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C159" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D159" t="s">
         <v>17</v>
@@ -8657,15 +8677,15 @@
         <v>25568.875529641209</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>18868</v>
       </c>
       <c r="B160" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C160" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D160" t="s">
         <v>17</v>
@@ -8695,15 +8715,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>48848</v>
       </c>
       <c r="B161" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C161" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D161" t="s">
         <v>17</v>
@@ -8733,18 +8753,18 @@
         <v>23</v>
       </c>
       <c r="O161" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>35366</v>
       </c>
       <c r="B162" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C162" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D162" t="s">
         <v>17</v>
@@ -8777,15 +8797,15 @@
         <v>25568.875529849542</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>50006</v>
       </c>
       <c r="B163" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C163" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D163" t="s">
         <v>17</v>
@@ -8815,18 +8835,18 @@
         <v>23</v>
       </c>
       <c r="O163" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>43454</v>
       </c>
       <c r="B164" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C164" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D164" t="s">
         <v>17</v>
@@ -8856,15 +8876,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>44843</v>
       </c>
       <c r="B165" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C165" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D165" t="s">
         <v>17</v>
@@ -8894,15 +8914,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>18434</v>
       </c>
       <c r="B166" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C166" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D166" t="s">
         <v>237</v>
@@ -8932,18 +8952,18 @@
         <v>23</v>
       </c>
       <c r="O166" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>33082</v>
       </c>
       <c r="B167" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C167" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D167" t="s">
         <v>17</v>
@@ -8973,18 +8993,18 @@
         <v>23</v>
       </c>
       <c r="O167" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>47943</v>
       </c>
       <c r="B168" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C168" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D168" t="s">
         <v>17</v>
@@ -9017,18 +9037,18 @@
         <v>25568.875530740741</v>
       </c>
       <c r="O168" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>47923</v>
       </c>
       <c r="B169" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C169" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D169" t="s">
         <v>17</v>
@@ -9058,18 +9078,18 @@
         <v>23</v>
       </c>
       <c r="O169" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>34216</v>
       </c>
       <c r="B170" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C170" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D170" t="s">
         <v>17</v>
@@ -9099,18 +9119,18 @@
         <v>23</v>
       </c>
       <c r="O170" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>52082</v>
       </c>
       <c r="B171" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C171" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D171" t="s">
         <v>17</v>
@@ -9140,15 +9160,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>52185</v>
       </c>
       <c r="B172" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C172" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D172" t="s">
         <v>17</v>
@@ -9178,18 +9198,18 @@
         <v>23</v>
       </c>
       <c r="O172" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>39934</v>
       </c>
       <c r="B173" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C173" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
@@ -9219,18 +9239,18 @@
         <v>23</v>
       </c>
       <c r="O173" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>43476</v>
       </c>
       <c r="B174" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C174" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D174" t="s">
         <v>17</v>
@@ -9260,18 +9280,18 @@
         <v>23</v>
       </c>
       <c r="O174" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>39921</v>
       </c>
       <c r="B175" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C175" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D175" t="s">
         <v>100</v>
@@ -9301,15 +9321,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>39778</v>
       </c>
       <c r="B176" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C176" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D176" t="s">
         <v>17</v>
@@ -9339,18 +9359,18 @@
         <v>23</v>
       </c>
       <c r="O176" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>34491</v>
       </c>
       <c r="B177" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C177" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D177" t="s">
         <v>17</v>
@@ -9380,18 +9400,18 @@
         <v>23</v>
       </c>
       <c r="O177" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>18793</v>
       </c>
       <c r="B178" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C178" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D178" t="s">
         <v>17</v>
@@ -9421,18 +9441,18 @@
         <v>23</v>
       </c>
       <c r="O178" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>39782</v>
       </c>
       <c r="B179" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C179" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D179" t="s">
         <v>17</v>
@@ -9465,15 +9485,15 @@
         <v>25568.875529606481</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>47599</v>
       </c>
       <c r="B180" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C180" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D180" t="s">
         <v>17</v>
@@ -9503,18 +9523,18 @@
         <v>23</v>
       </c>
       <c r="O180" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>18768</v>
       </c>
       <c r="B181" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C181" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D181" t="s">
         <v>17</v>
@@ -9544,12 +9564,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>18523</v>
       </c>
       <c r="B182" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C182" t="s">
         <v>35</v>
@@ -9582,18 +9602,18 @@
         <v>23</v>
       </c>
       <c r="O182" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>48858</v>
       </c>
       <c r="B183" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C183" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D183" t="s">
         <v>17</v>
@@ -9623,18 +9643,18 @@
         <v>23</v>
       </c>
       <c r="O183" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>33955</v>
       </c>
       <c r="B184" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C184" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D184" t="s">
         <v>237</v>
@@ -9664,15 +9684,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>52145</v>
       </c>
       <c r="B185" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C185" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D185" t="s">
         <v>17</v>
@@ -9702,7 +9722,7 @@
         <v>23</v>
       </c>
       <c r="O185" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.35">
@@ -9710,10 +9730,10 @@
         <v>36328</v>
       </c>
       <c r="B186" t="s">
-        <v>527</v>
+        <v>625</v>
       </c>
       <c r="C186" t="s">
-        <v>528</v>
+        <v>626</v>
       </c>
       <c r="D186" t="s">
         <v>303</v>
@@ -9743,7 +9763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>52587</v>
       </c>
@@ -9784,7 +9804,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>52681</v>
       </c>
@@ -9822,7 +9842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>52598</v>
       </c>
@@ -9863,7 +9883,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>18893</v>
       </c>
@@ -9895,7 +9915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>37184</v>
       </c>
@@ -9927,7 +9947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>22907</v>
       </c>
@@ -9959,7 +9979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>39995</v>
       </c>
@@ -9991,7 +10011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>46629</v>
       </c>
@@ -10017,7 +10037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>49549</v>
       </c>
@@ -10049,7 +10069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>18464</v>
       </c>
@@ -10090,7 +10110,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>52611</v>
       </c>
@@ -10131,7 +10151,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>52705</v>
       </c>
@@ -10172,7 +10192,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>37192</v>
       </c>
@@ -10201,7 +10221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>19297</v>
       </c>
@@ -10236,7 +10256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>52722</v>
       </c>
@@ -10274,7 +10294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>52575</v>
       </c>
@@ -10315,7 +10335,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>52604</v>
       </c>
@@ -10356,7 +10376,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>18598</v>
       </c>
@@ -10397,7 +10417,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>52557</v>
       </c>
@@ -10438,7 +10458,7 @@
         <v>25568.87552991898</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>52561</v>
       </c>
@@ -10479,7 +10499,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>52595</v>
       </c>
@@ -10520,7 +10540,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>52711</v>
       </c>
@@ -10561,7 +10581,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>52699</v>
       </c>
@@ -10602,7 +10622,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>53194</v>
       </c>
@@ -10643,7 +10663,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>590</v>
       </c>
@@ -10684,7 +10704,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>590</v>
       </c>
@@ -10725,7 +10745,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0</v>
       </c>
@@ -10769,7 +10789,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>0</v>
       </c>
@@ -10810,7 +10830,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>0</v>
       </c>
@@ -10851,7 +10871,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>44774</v>
       </c>
@@ -10889,7 +10909,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>54241</v>
       </c>
@@ -10930,7 +10950,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>18981</v>
       </c>
@@ -10968,7 +10988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>44359</v>
       </c>
@@ -11009,7 +11029,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>616</v>
       </c>
@@ -11029,7 +11049,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>619</v>
       </c>
@@ -11049,7 +11069,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>621</v>
       </c>
@@ -11069,7 +11089,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>623</v>
       </c>
@@ -11090,6 +11110,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O223" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Yochabel Carlech Dantas Jose"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>